--- a/biology/Botanique/Forêt_d'Andaine/Forêt_d'Andaine.xlsx
+++ b/biology/Botanique/Forêt_d'Andaine/Forêt_d'Andaine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>For%C3%AAt_d%27Andaine</t>
+          <t>Forêt_d'Andaine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La forêt d'Andaine ou forêt des Andaines (plus rarement orthographiée forêt d'Andenne ou forêt des Andennes) est une forêt domaniale située dans le département de l'Orne et la région Normandie[1].
+La forêt d'Andaine ou forêt des Andaines (plus rarement orthographiée forêt d'Andenne ou forêt des Andennes) est une forêt domaniale située dans le département de l'Orne et la région Normandie.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>For%C3%AAt_d%27Andaine</t>
+          <t>Forêt_d'Andaine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Présentation géographique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet ensemble boisé, situé aux confins du Maine, de la Normandie et de la Bretagne, est divisé en deux massifs :
 La forêt d'Andaine proprement dite, de 4 120 ha, qui s'étend à partir de Domfront jusqu'à Bagnoles-de-l'Orne,
@@ -534,7 +548,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>For%C3%AAt_d%27Andaine</t>
+          <t>Forêt_d'Andaine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -552,9 +566,11 @@
           <t>Patrimoine naturel</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La forêt d'Andaine est en zone naturelle d'intérêt écologique, faunistique et floristique[2]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La forêt d'Andaine est en zone naturelle d'intérêt écologique, faunistique et floristique
 </t>
         </is>
       </c>
@@ -565,7 +581,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>For%C3%AAt_d%27Andaine</t>
+          <t>Forêt_d'Andaine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,7 +599,9 @@
           <t>Lieux remarquables</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>La tour de Bonvouloir offre un panorama remarquable sur ses environs,
 La chapelle Sainte-Geneviève,
@@ -608,7 +626,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>For%C3%AAt_d%27Andaine</t>
+          <t>Forêt_d'Andaine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -626,18 +644,20 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le début du siècle voit des essais d'introduction d'essences nouvelles dont le douglas au carrefour des Pépinières. Subsistent aujourd'hui de superbes spécimens, sans rapport avec l'âge des nombreuses plantations qui ont suivi lors du reboisement après guerre, ce sont les seuls à avoir survécu à ce qui suit.
-En 1944, pendant la bataille de Normandie, les Allemands installèrent dans la forêt de nombreux dépôts de ravitaillement dont un non loin de Domfront, au nord de Perrou[3],[4].
-Un autre se situe entre le carrefour de l'Épinette et le chêne Hypolite. Il a été terrassé par des prisonniers sénégalais retenus dans un camp au carrefour de l'Épinette[5] ( secteur Martha s'étendant très à l'est)
-Le carrefour du Garde Général, sur la route forestière du Gué Besnard, montre aussi de telles installations[6]. Il s'étendait jusqu'au carrefour de la Pépinière. 
+En 1944, pendant la bataille de Normandie, les Allemands installèrent dans la forêt de nombreux dépôts de ravitaillement dont un non loin de Domfront, au nord de Perrou,.
+Un autre se situe entre le carrefour de l'Épinette et le chêne Hypolite. Il a été terrassé par des prisonniers sénégalais retenus dans un camp au carrefour de l'Épinette ( secteur Martha s'étendant très à l'est)
+Le carrefour du Garde Général, sur la route forestière du Gué Besnard, montre aussi de telles installations. Il s'étendait jusqu'au carrefour de la Pépinière. 
 D'autres lieux conservent des traces au nord de Bagnoles (secteur Viktor).
-Un dernier, vers La Sauvagère, à la Noé de Livet, est sans terrassement, plus tardif et n'était pas sécurisé[réf. à confirmer][7]. L'absence de terrassement fait qu'il n'est pas répertorié dans le document principal cité en référence. Il n'est connu que par des témoignages et des vestiges dans le sol.
-Ces dépôts ont fait l'objet de bombardements intenses. Sur une photo repérée 52 742 ac[8],[9], on voit le bombardement du carrefour des Pépinières sur la RD 908 par une escadrille de bimoteurs. Ce sont des Douglas Havoc A-20G du 645th Bombardment Squadron du 410th Bombardment Group du 97th Combat Bombardment Wing du IX Bomber Command de la Ninth Air Force. Il faisait suite à ceux des 13, 15 (Havoc ) et 25 juin 1944 par des B26[10] .
-Ils ont finalement explosé à l'arrivée de la 1re division d'infanterie US[11] vraisemblablement détruits par les allemands.
-Une étude archéologique et historique de la forêt domaniale des Andaines a comptabilisé près de 900 bunkers et terrassements discrets, fondations, tranchées et autres éléments liés à la construction par l'armée allemande de supports logistiques et en particulier de dépôts de carburant et de munitions[12]. Des documents montrent que ces dépôts étaient administrativement gérés à partir de Bagnoles-de-l'Orne et qu'ils étaient un élément-clé du réseau logistique de la septième armée avant et pendant la campagne de Normandie (juin-août 1944)[12].
-C'est encore l'un des témoignages les mieux conservés et les plus vastes de ce type d'installations en Europe de l'Ouest[12],[13].
+Un dernier, vers La Sauvagère, à la Noé de Livet, est sans terrassement, plus tardif et n'était pas sécurisé[réf. à confirmer]. L'absence de terrassement fait qu'il n'est pas répertorié dans le document principal cité en référence. Il n'est connu que par des témoignages et des vestiges dans le sol.
+Ces dépôts ont fait l'objet de bombardements intenses. Sur une photo repérée 52 742 ac on voit le bombardement du carrefour des Pépinières sur la RD 908 par une escadrille de bimoteurs. Ce sont des Douglas Havoc A-20G du 645th Bombardment Squadron du 410th Bombardment Group du 97th Combat Bombardment Wing du IX Bomber Command de la Ninth Air Force. Il faisait suite à ceux des 13, 15 (Havoc ) et 25 juin 1944 par des B26 .
+Ils ont finalement explosé à l'arrivée de la 1re division d'infanterie US vraisemblablement détruits par les allemands.
+Une étude archéologique et historique de la forêt domaniale des Andaines a comptabilisé près de 900 bunkers et terrassements discrets, fondations, tranchées et autres éléments liés à la construction par l'armée allemande de supports logistiques et en particulier de dépôts de carburant et de munitions. Des documents montrent que ces dépôts étaient administrativement gérés à partir de Bagnoles-de-l'Orne et qu'ils étaient un élément-clé du réseau logistique de la septième armée avant et pendant la campagne de Normandie (juin-août 1944).
+C'est encore l'un des témoignages les mieux conservés et les plus vastes de ce type d'installations en Europe de l'Ouest,.
 </t>
         </is>
       </c>
